--- a/tests/testthat/Beispiel_Datenblatt_M1.xlsx
+++ b/tests/testthat/Beispiel_Datenblatt_M1.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr filterPrivacy="1" codeName="DieseArbeitsmappe" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E8876B9-467E-4E9D-BD6F-84BE6706A2CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4183D933-644D-4DA6-ACAB-8906C54667A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11303,12 +11303,6 @@
       <c r="F196" t="s">
         <v>49</v>
       </c>
-      <c r="G196">
-        <v>0</v>
-      </c>
-      <c r="H196">
-        <v>5</v>
-      </c>
       <c r="I196">
         <v>100</v>
       </c>
@@ -13158,12 +13152,6 @@
       <c r="F231" t="s">
         <v>49</v>
       </c>
-      <c r="G231">
-        <v>0</v>
-      </c>
-      <c r="H231">
-        <v>5</v>
-      </c>
       <c r="I231">
         <v>100</v>
       </c>
@@ -14483,12 +14471,6 @@
       <c r="F256" t="s">
         <v>49</v>
       </c>
-      <c r="G256">
-        <v>0</v>
-      </c>
-      <c r="H256">
-        <v>5</v>
-      </c>
       <c r="I256">
         <v>100</v>
       </c>
@@ -14536,12 +14518,6 @@
       <c r="F257" t="s">
         <v>49</v>
       </c>
-      <c r="G257">
-        <v>0</v>
-      </c>
-      <c r="H257">
-        <v>5</v>
-      </c>
       <c r="I257">
         <v>100</v>
       </c>
@@ -15966,12 +15942,6 @@
       </c>
       <c r="F284" t="s">
         <v>51</v>
-      </c>
-      <c r="G284">
-        <v>5</v>
-      </c>
-      <c r="H284">
-        <v>5</v>
       </c>
       <c r="I284">
         <v>100</v>

--- a/tests/testthat/Beispiel_Datenblatt_M1.xlsx
+++ b/tests/testthat/Beispiel_Datenblatt_M1.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr filterPrivacy="1" codeName="DieseArbeitsmappe" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4183D933-644D-4DA6-ACAB-8906C54667A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AC6ECCD-B292-475E-BDBD-3762FA049EC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597" uniqueCount="52">
   <si>
     <t>Geschlecht</t>
   </si>
@@ -273,9 +273,6 @@
   </si>
   <si>
     <t>Direktionsassistent/in</t>
-  </si>
-  <si>
-    <t>Bereichsleiter/in, Mitglied GL</t>
   </si>
   <si>
     <t>Empfangsmitarbeiter/in</t>
@@ -2397,7 +2394,7 @@
         <v>3</v>
       </c>
       <c r="F28" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="G28">
         <v>3</v>
@@ -2503,7 +2500,7 @@
         <v>6</v>
       </c>
       <c r="F30" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G30">
         <v>7</v>
@@ -2980,7 +2977,7 @@
         <v>3</v>
       </c>
       <c r="F39" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G39">
         <v>7</v>
@@ -3192,7 +3189,7 @@
         <v>6</v>
       </c>
       <c r="F43" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G43">
         <v>4</v>
@@ -3510,7 +3507,7 @@
         <v>6</v>
       </c>
       <c r="F49" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G49">
         <v>4</v>
@@ -3616,7 +3613,7 @@
         <v>3</v>
       </c>
       <c r="F51" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G51">
         <v>4</v>
@@ -3669,7 +3666,7 @@
         <v>6</v>
       </c>
       <c r="F52" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G52">
         <v>7</v>
@@ -4358,7 +4355,7 @@
         <v>6</v>
       </c>
       <c r="F65" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G65">
         <v>7</v>
@@ -4941,7 +4938,7 @@
         <v>6</v>
       </c>
       <c r="F76" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G76">
         <v>5</v>
@@ -5153,7 +5150,7 @@
         <v>5</v>
       </c>
       <c r="F80" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G80">
         <v>7</v>
@@ -5206,7 +5203,7 @@
         <v>5</v>
       </c>
       <c r="F81" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G81">
         <v>6</v>
@@ -5259,7 +5256,7 @@
         <v>6</v>
       </c>
       <c r="F82" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G82">
         <v>4</v>
@@ -5524,7 +5521,7 @@
         <v>6</v>
       </c>
       <c r="F87" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G87">
         <v>7</v>
@@ -5736,7 +5733,7 @@
         <v>8</v>
       </c>
       <c r="F91" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G91">
         <v>7</v>
@@ -5842,7 +5839,7 @@
         <v>8</v>
       </c>
       <c r="F93" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G93">
         <v>5</v>
@@ -5895,7 +5892,7 @@
         <v>3</v>
       </c>
       <c r="F94" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G94">
         <v>6</v>
@@ -5948,7 +5945,7 @@
         <v>5</v>
       </c>
       <c r="F95" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G95">
         <v>5</v>
@@ -6054,7 +6051,7 @@
         <v>8</v>
       </c>
       <c r="F97" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G97">
         <v>7</v>
@@ -6266,7 +6263,7 @@
         <v>5</v>
       </c>
       <c r="F101" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G101">
         <v>4</v>
@@ -6372,7 +6369,7 @@
         <v>2</v>
       </c>
       <c r="F103" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G103">
         <v>3</v>
@@ -6584,7 +6581,7 @@
         <v>8</v>
       </c>
       <c r="F107" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G107">
         <v>7</v>
@@ -7379,7 +7376,7 @@
         <v>3</v>
       </c>
       <c r="F122" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G122">
         <v>4</v>
@@ -7538,7 +7535,7 @@
         <v>8</v>
       </c>
       <c r="F125" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G125">
         <v>5</v>
@@ -7644,7 +7641,7 @@
         <v>3</v>
       </c>
       <c r="F127" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G127">
         <v>4</v>
@@ -7962,7 +7959,7 @@
         <v>3</v>
       </c>
       <c r="F133" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G133">
         <v>4</v>
@@ -8492,7 +8489,7 @@
         <v>6</v>
       </c>
       <c r="F143" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G143">
         <v>7</v>
@@ -8598,7 +8595,7 @@
         <v>6</v>
       </c>
       <c r="F145" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G145">
         <v>6</v>
@@ -8969,7 +8966,7 @@
         <v>2</v>
       </c>
       <c r="F152" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G152">
         <v>4</v>
@@ -9711,7 +9708,7 @@
         <v>8</v>
       </c>
       <c r="F166" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G166">
         <v>7</v>
@@ -9817,7 +9814,7 @@
         <v>8</v>
       </c>
       <c r="F168" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G168">
         <v>7</v>
@@ -9923,7 +9920,7 @@
         <v>6</v>
       </c>
       <c r="F170" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G170">
         <v>6</v>
@@ -10135,7 +10132,7 @@
         <v>8</v>
       </c>
       <c r="F174" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G174">
         <v>7</v>
@@ -10188,7 +10185,7 @@
         <v>6</v>
       </c>
       <c r="F175" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G175">
         <v>4</v>
@@ -10347,7 +10344,7 @@
         <v>3</v>
       </c>
       <c r="F178" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G178">
         <v>4</v>
@@ -10983,7 +10980,7 @@
         <v>5</v>
       </c>
       <c r="F190" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G190">
         <v>7</v>
@@ -11301,7 +11298,7 @@
         <v>8</v>
       </c>
       <c r="F196" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I196">
         <v>100</v>
@@ -11348,7 +11345,7 @@
         <v>8</v>
       </c>
       <c r="F197" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G197">
         <v>4</v>
@@ -11666,7 +11663,7 @@
         <v>6</v>
       </c>
       <c r="F203" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G203">
         <v>5</v>
@@ -11878,7 +11875,7 @@
         <v>6</v>
       </c>
       <c r="F207" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G207">
         <v>6</v>
@@ -11984,7 +11981,7 @@
         <v>5</v>
       </c>
       <c r="F209" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G209">
         <v>4</v>
@@ -12143,7 +12140,7 @@
         <v>6</v>
       </c>
       <c r="F212" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G212">
         <v>4</v>
@@ -12355,7 +12352,7 @@
         <v>8</v>
       </c>
       <c r="F216" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G216">
         <v>7</v>
@@ -12620,7 +12617,7 @@
         <v>5</v>
       </c>
       <c r="F221" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G221">
         <v>4</v>
@@ -12779,7 +12776,7 @@
         <v>3</v>
       </c>
       <c r="F224" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G224">
         <v>6</v>
@@ -12885,7 +12882,7 @@
         <v>8</v>
       </c>
       <c r="F226" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G226">
         <v>7</v>
@@ -12991,7 +12988,7 @@
         <v>6</v>
       </c>
       <c r="F228" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G228">
         <v>4</v>
@@ -13150,7 +13147,7 @@
         <v>8</v>
       </c>
       <c r="F231" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I231">
         <v>100</v>
@@ -13568,7 +13565,7 @@
         <v>6</v>
       </c>
       <c r="F239" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G239">
         <v>4</v>
@@ -13621,7 +13618,7 @@
         <v>2</v>
       </c>
       <c r="F240" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="G240">
         <v>3</v>
@@ -13674,7 +13671,7 @@
         <v>3</v>
       </c>
       <c r="F241" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G241">
         <v>4</v>
@@ -13939,7 +13936,7 @@
         <v>1</v>
       </c>
       <c r="F246" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="G246">
         <v>3</v>
@@ -13992,7 +13989,7 @@
         <v>8</v>
       </c>
       <c r="F247" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G247">
         <v>7</v>
@@ -14045,7 +14042,7 @@
         <v>2</v>
       </c>
       <c r="F248" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G248">
         <v>4</v>
@@ -14310,7 +14307,7 @@
         <v>2</v>
       </c>
       <c r="F253" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G253">
         <v>5</v>
@@ -14469,7 +14466,7 @@
         <v>8</v>
       </c>
       <c r="F256" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I256">
         <v>100</v>
@@ -14516,7 +14513,7 @@
         <v>8</v>
       </c>
       <c r="F257" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I257">
         <v>100</v>
@@ -14934,7 +14931,7 @@
         <v>6</v>
       </c>
       <c r="F265" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G265">
         <v>5</v>
@@ -15093,7 +15090,7 @@
         <v>6</v>
       </c>
       <c r="F268" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G268">
         <v>4</v>
@@ -15305,7 +15302,7 @@
         <v>6</v>
       </c>
       <c r="F272" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G272">
         <v>4</v>
@@ -15835,7 +15832,7 @@
         <v>6</v>
       </c>
       <c r="F282" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G282">
         <v>6</v>
@@ -15941,7 +15938,7 @@
         <v>1</v>
       </c>
       <c r="F284" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I284">
         <v>100</v>
@@ -16041,7 +16038,7 @@
         <v>6</v>
       </c>
       <c r="F286" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G286">
         <v>6</v>
